--- a/miyouStudentInfo/static/download/用户信息表 - 模板.xlsx
+++ b/miyouStudentInfo/static/download/用户信息表 - 模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>类别</t>
   </si>
@@ -53,6 +53,33 @@
   </si>
   <si>
     <t>就读所在区</t>
+  </si>
+  <si>
+    <t>例：认证用户/班级通讯录</t>
+  </si>
+  <si>
+    <t>陈娟</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>中山大学</t>
+  </si>
+  <si>
+    <t>管理学院</t>
+  </si>
+  <si>
+    <t>市场营销16级2班</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>天河</t>
   </si>
 </sst>
 </file>
@@ -60,12 +87,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,14 +108,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,106 +242,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -239,19 +272,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,163 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,17 +483,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -481,17 +507,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,26 +548,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +563,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,10 +586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,137 +598,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,6 +739,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1027,15 +1066,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
@@ -1093,6 +1132,47 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4">
+        <v>13802881680</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5">
+        <v>20160001</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2016</v>
+      </c>
+      <c r="J2" s="5">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/miyouStudentInfo/static/download/用户信息表 - 模板.xlsx
+++ b/miyouStudentInfo/static/download/用户信息表 - 模板.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
-    <t>类别</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -34,6 +31,9 @@
     <t>院系</t>
   </si>
   <si>
+    <t>专业</t>
+  </si>
+  <si>
     <t>班级</t>
   </si>
   <si>
@@ -55,9 +55,6 @@
     <t>就读所在区</t>
   </si>
   <si>
-    <t>例：认证用户/班级通讯录</t>
-  </si>
-  <si>
     <t>陈娟</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>管理学院</t>
+  </si>
+  <si>
+    <t>市场营销</t>
   </si>
   <si>
     <t>市场营销16级2班</t>
@@ -92,7 +92,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +114,95 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -125,6 +214,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,37 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -175,35 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -211,14 +248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -227,31 +256,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,6 +279,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -284,175 +357,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,11 +490,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,15 +551,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -531,26 +566,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,168 +585,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,17 +1078,16 @@
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="17.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.875" style="1"/>
     <col min="10" max="10" width="10.375" style="1" customWidth="1"/>
@@ -1132,15 +1138,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:13">
+    <row r="2" ht="21" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="4">
+        <v>13822260016</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="4">
-        <v>13802881680</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>

--- a/miyouStudentInfo/static/download/用户信息表 - 模板.xlsx
+++ b/miyouStudentInfo/static/download/用户信息表 - 模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>姓名</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>天河</t>
+  </si>
+  <si>
+    <t>备注：示例中红色字体为必填项目</t>
   </si>
 </sst>
 </file>
@@ -87,12 +90,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,28 +132,121 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,106 +259,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -279,61 +275,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,121 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,47 +486,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -551,28 +525,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,152 +586,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,7 +747,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,17 +1075,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.0833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
     <col min="4" max="5" width="15.125" style="1" customWidth="1"/>
@@ -1154,29 +1156,34 @@
       <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>20160001</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>2016</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
